--- a/StructureDefinition-profile-DocumentReference-for-Media.xlsx
+++ b/StructureDefinition-profile-DocumentReference-for-Media.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="491">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6762874-06:00</t>
+    <t>2026-02-09T22:05:43.0857968-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -431,33 +431,162 @@
     <t>Media.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Media.extension:version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.version|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DocumentReference.version from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An explicitly assigned identifer of a variation of the content in the DocumentReference.</t>
+  </si>
+  <si>
+    <t>Element `DocumentReference.version` is will have a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.version` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Media.extension:docStatus</t>
+  </si>
+  <si>
+    <t>docStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.docStatus|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DocumentReference.docStatus from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The status of the underlying document.</t>
+  </si>
+  <si>
+    <t>Element `DocumentReference.docStatus` is mapped to FHIR R4 element `DocumentReference.docStatus`.
+Element `DocumentReference.docStatus` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+  </si>
+  <si>
+    <t>Media.extension:event</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.event|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DocumentReference.event from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This list of codes represents the main clinical acts, such as a colonoscopy or an appendectomy, being documented. In some cases, the event is inherent in the type Code, such as a "History and Physical Report" in which the procedure being documented is necessarily a "History and Physical" act.</t>
+  </si>
+  <si>
+    <t>Element `DocumentReference.event` is mapped to FHIR R4 element `DocumentReference.context.event`.
+Element `DocumentReference.event` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+  </si>
+  <si>
+    <t>Media.extension:attester</t>
+  </si>
+  <si>
+    <t>attester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.attester|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DocumentReference.attester from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A participant who has authenticated the accuracy of the document.</t>
+  </si>
+  <si>
+    <t>Element `DocumentReference.attester` is will have a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.attester` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+  </si>
+  <si>
+    <t>Media.extension:relatesTo</t>
+  </si>
+  <si>
+    <t>relatesTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.relatesTo|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DocumentReference.relatesTo from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Relationships that this document has with other document references that already exist.</t>
+  </si>
+  <si>
+    <t>Element `DocumentReference.relatesTo` is mapped to FHIR R4 element `DocumentReference.relatesTo`.
+Element `DocumentReference.relatesTo` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+  </si>
+  <si>
+    <t>Media.extension:context</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DocumentReference.context from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Appointment,http://hl7.org/fhir/StructureDefinition/Encounter,http://hl7.org/fhir/StructureDefinition/EpisodeOfCare in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.context` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DocumentReference.context` is mapped to FHIR R4 element `DocumentReference.context`.
+Element `DocumentReference.context` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+  </si>
+  <si>
+    <t>Media.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Media.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -465,6 +594,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -547,30 +679,27 @@
     <t>Media.basedOn.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.basedOn|0.0.1-snapshot-3}
-</t>
+    <t>Media.basedOn.extension:basedOn</t>
+  </si>
+  <si>
+    <t>basedOn</t>
   </si>
   <si>
     <t>Cross-version extension for DocumentReference.basedOn from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Appointment,http://hl7.org/fhir/StructureDefinition/AppointmentResponse,http://hl7.org/fhir/StructureDefinition/Claim,http://hl7.org/fhir/StructureDefinition/CommunicationRequest,http://hl7.org/fhir/StructureDefinition/Contract,http://hl7.org/fhir/StructureDefinition/CoverageEligibilityRequest,http://hl7.org/fhir/StructureDefinition/DeviceRequest,http://hl7.org/fhir/StructureDefinition/EnrollmentRequest,http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation,http://hl7.org/fhir/StructureDefinition/MedicationRequest,http://hl7.org/fhir/StructureDefinition/NutritionOrder,http://hl7.org/fhir/StructureDefinition/RequestOrchestration,http://hl7.org/fhir/StructureDefinition/SupplyRequest,http://hl7.org/fhir/StructureDefinition/VisionPrescription in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DocumentReference.basedOn` is will have a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.basedOn` is mapped to FHIR R4 element `Media.basedOn`.</t>
   </si>
   <si>
     <t>Media.basedOn.reference</t>
@@ -989,6 +1118,12 @@
     <t>Media.bodySite.extension</t>
   </si>
   <si>
+    <t>Media.bodySite.extension:bodySite</t>
+  </si>
+  <si>
+    <t>bodySite</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.bodySite|0.0.1-snapshot-3}
 </t>
   </si>
@@ -999,6 +1134,10 @@
     <t>The anatomic structures included in the document.</t>
   </si>
   <si>
+    <t>Element `DocumentReference.bodySite` is will have a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.bodySite` is mapped to FHIR R4 element `Media.bodySite`.</t>
+  </si>
+  <si>
     <t>Media.bodySite.coding</t>
   </si>
   <si>
@@ -1170,6 +1309,228 @@
   </si>
   <si>
     <t>.text</t>
+  </si>
+  <si>
+    <t>Media.content.id</t>
+  </si>
+  <si>
+    <t>Media.content.extension</t>
+  </si>
+  <si>
+    <t>Media.content.extension:profile</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.content.profile|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DocumentReference.content.profile from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An identifier of the document constraints, encoding, structure, and template that the document conforms to beyond the base format indicated in the mimeType.</t>
+  </si>
+  <si>
+    <t>Element `DocumentReference.content.profile` is will have a context of DocumentReference.content based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.content.profile` is will have a context of Media.content based on following the parent source element upwards and mapping to `Media`.</t>
+  </si>
+  <si>
+    <t>Media.content.contentType</t>
+  </si>
+  <si>
+    <t>Mime type of the content, with charset etc.</t>
+  </si>
+  <si>
+    <t>Identifies the type of the data in the attachment and allows a method to be chosen to interpret or render the data. Includes mime type parameters such as charset where appropriate.</t>
+  </si>
+  <si>
+    <t>Processors of the data need to be able to know how to interpret the data.</t>
+  </si>
+  <si>
+    <t>text/plain; charset=UTF-8, image/png</t>
+  </si>
+  <si>
+    <t>The mime type of an attachment. Any valid mime type is allowed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/mimetypes|4.0.1</t>
+  </si>
+  <si>
+    <t>Attachment.contentType</t>
+  </si>
+  <si>
+    <t>./mediaType, ./charset</t>
+  </si>
+  <si>
+    <t>ED.2+ED.3/RP.2+RP.3. Note conversion may be needed if old style values are being used</t>
+  </si>
+  <si>
+    <t>Media.content.language</t>
+  </si>
+  <si>
+    <t>Human language of the content (BCP-47)</t>
+  </si>
+  <si>
+    <t>The human language of the content. The value can be any valid value according to BCP 47.</t>
+  </si>
+  <si>
+    <t>Users need to be able to choose between the languages in a set of attachments.</t>
+  </si>
+  <si>
+    <t>en-AU</t>
+  </si>
+  <si>
+    <t>Attachment.language</t>
+  </si>
+  <si>
+    <t>./language</t>
+  </si>
+  <si>
+    <t>Media.content.data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base64Binary
+</t>
+  </si>
+  <si>
+    <t>Data inline, base64ed</t>
+  </si>
+  <si>
+    <t>The actual data of the attachment - a sequence of bytes, base64 encoded.</t>
+  </si>
+  <si>
+    <t>The base64-encoded data SHALL be expressed in the same character set as the base resource XML or JSON.</t>
+  </si>
+  <si>
+    <t>The data needs to able to be transmitted inline.</t>
+  </si>
+  <si>
+    <t>Attachment.data</t>
+  </si>
+  <si>
+    <t>./data</t>
+  </si>
+  <si>
+    <t>ED.5</t>
+  </si>
+  <si>
+    <t>Media.content.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url
+</t>
+  </si>
+  <si>
+    <t>Uri where the data can be found</t>
+  </si>
+  <si>
+    <t>A location where the data can be accessed.</t>
+  </si>
+  <si>
+    <t>If both data and url are provided, the url SHALL point to the same content as the data contains. Urls may be relative references or may reference transient locations such as a wrapping envelope using cid: though this has ramifications for using signatures. Relative URLs are interpreted relative to the service url, like a resource reference, rather than relative to the resource itself. If a URL is provided, it SHALL resolve to actual data.</t>
+  </si>
+  <si>
+    <t>The data needs to be transmitted by reference.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/logo-small.png</t>
+  </si>
+  <si>
+    <t>Attachment.url</t>
+  </si>
+  <si>
+    <t>./reference/literal</t>
+  </si>
+  <si>
+    <t>RP.1+RP.2 - if they refer to a URL (see v2.6)</t>
+  </si>
+  <si>
+    <t>Media.content.size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt
+</t>
+  </si>
+  <si>
+    <t>Number of bytes of content (if url provided)</t>
+  </si>
+  <si>
+    <t>The number of bytes of data that make up this attachment (before base64 encoding, if that is done).</t>
+  </si>
+  <si>
+    <t>The number of bytes is redundant if the data is provided as a base64binary, but is useful if the data is provided as a url reference.</t>
+  </si>
+  <si>
+    <t>Representing the size allows applications to determine whether they should fetch the content automatically in advance, or refuse to fetch it at all.</t>
+  </si>
+  <si>
+    <t>Attachment.size</t>
+  </si>
+  <si>
+    <t>N/A (needs data type R3 proposal)</t>
+  </si>
+  <si>
+    <t>Media.content.hash</t>
+  </si>
+  <si>
+    <t>Hash of the data (sha-1, base64ed)</t>
+  </si>
+  <si>
+    <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
+  </si>
+  <si>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+  </si>
+  <si>
+    <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
+  </si>
+  <si>
+    <t>Attachment.hash</t>
+  </si>
+  <si>
+    <t>.integrityCheck[parent::ED/integrityCheckAlgorithm="SHA-1"]</t>
+  </si>
+  <si>
+    <t>Media.content.title</t>
+  </si>
+  <si>
+    <t>Label to display in place of the data</t>
+  </si>
+  <si>
+    <t>A label or set of text to display in place of the data.</t>
+  </si>
+  <si>
+    <t>Applications need a label to display to a human user in place of the actual data if the data cannot be rendered or perceived by the viewer.</t>
+  </si>
+  <si>
+    <t>Official Corporate Logo</t>
+  </si>
+  <si>
+    <t>Attachment.title</t>
+  </si>
+  <si>
+    <t>./title/data</t>
+  </si>
+  <si>
+    <t>Media.content.creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date attachment was first created</t>
+  </si>
+  <si>
+    <t>The date that the attachment was first created.</t>
+  </si>
+  <si>
+    <t>This is often tracked as an integrity issue for use of the attachment.</t>
+  </si>
+  <si>
+    <t>Attachment.creation</t>
   </si>
   <si>
     <t>Media.note</t>
@@ -1501,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ44"/>
+  <dimension ref="A1:AQ61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1510,8 +1871,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.9609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.9609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.60546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.40625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
@@ -1529,7 +1890,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="31.91796875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
@@ -1549,7 +1910,7 @@
     <col min="38" max="38" width="89.25390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="41.4609375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="62.0390625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="71.5546875" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="39.875" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="33.8203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -2551,7 +2912,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2570,17 +2931,15 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -2617,16 +2976,14 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>140</v>
@@ -2647,7 +3004,7 @@
         <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>80</v>
@@ -2670,43 +3027,43 @@
         <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
       </c>
@@ -2754,7 +3111,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -2763,7 +3120,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>141</v>
@@ -2772,7 +3129,7 @@
         <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>80</v>
@@ -2792,12 +3149,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>80</v>
       </c>
@@ -2806,7 +3165,7 @@
         <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>80</v>
@@ -2815,19 +3174,19 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2877,7 +3236,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -2886,22 +3245,22 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>80</v>
@@ -2915,14 +3274,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2938,21 +3299,21 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3000,7 +3361,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3009,16 +3370,16 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>80</v>
@@ -3038,12 +3399,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3052,7 +3415,7 @@
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
@@ -3064,15 +3427,17 @@
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3121,25 +3486,25 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>80</v>
@@ -3159,18 +3524,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>82</v>
@@ -3185,15 +3552,17 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3230,19 +3599,19 @@
         <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3251,7 +3620,7 @@
         <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>141</v>
@@ -3280,12 +3649,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3306,15 +3677,17 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -3363,7 +3736,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3408,37 +3781,39 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3486,19 +3861,19 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>80</v>
@@ -3524,10 +3899,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3538,7 +3913,7 @@
         <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -3550,16 +3925,16 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3585,13 +3960,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3609,13 +3984,13 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
@@ -3624,16 +3999,16 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -3647,21 +4022,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -3673,18 +4048,18 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3732,13 +4107,13 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
@@ -3747,10 +4122,10 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -3770,10 +4145,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3793,20 +4168,18 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -3855,7 +4228,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -3867,13 +4240,13 @@
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -3893,14 +4266,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3916,23 +4289,19 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -3968,19 +4337,19 @@
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -3992,13 +4361,13 @@
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -4018,18 +4387,20 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>90</v>
@@ -4038,13 +4409,13 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>214</v>
@@ -4079,13 +4450,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4103,34 +4474,34 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>80</v>
@@ -4141,10 +4512,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4167,18 +4538,18 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4202,13 +4573,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4226,7 +4597,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4235,7 +4606,7 @@
         <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>102</v>
@@ -4244,10 +4615,10 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4264,10 +4635,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4290,15 +4661,17 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4323,13 +4696,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4347,7 +4720,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4362,16 +4735,16 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>133</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4385,10 +4758,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4411,15 +4784,17 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4444,13 +4819,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4468,7 +4843,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4486,7 +4861,7 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4506,10 +4881,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4532,15 +4907,17 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4589,7 +4966,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4604,16 +4981,16 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>133</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -4627,21 +5004,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4653,19 +5030,19 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4714,13 +5091,13 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
@@ -4729,13 +5106,13 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -4752,18 +5129,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>90</v>
@@ -4772,21 +5149,23 @@
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>269</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -4811,13 +5190,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -4835,10 +5214,10 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>90</v>
@@ -4850,19 +5229,19 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>80</v>
@@ -4873,10 +5252,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4899,18 +5278,18 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4934,13 +5313,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -4958,7 +5337,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -4976,16 +5355,16 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>80</v>
@@ -4996,10 +5375,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5022,13 +5401,13 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5055,13 +5434,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5079,7 +5458,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5094,16 +5473,16 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5117,10 +5496,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5131,7 +5510,7 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5143,17 +5522,15 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5178,13 +5555,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5202,13 +5579,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5217,13 +5594,13 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5240,10 +5617,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5266,17 +5643,15 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5301,13 +5676,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5325,7 +5700,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5340,37 +5715,37 @@
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5386,19 +5761,23 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>165</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>166</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5446,7 +5825,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5458,16 +5837,16 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>169</v>
+        <v>303</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5484,22 +5863,22 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5507,16 +5886,16 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>136</v>
+        <v>307</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>171</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>172</v>
+        <v>309</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5555,40 +5934,40 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>176</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5605,10 +5984,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5619,7 +5998,7 @@
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5628,18 +6007,20 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5688,34 +6069,34 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>80</v>
@@ -5726,10 +6107,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5740,7 +6121,7 @@
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5752,20 +6133,16 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5813,13 +6190,13 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
@@ -5828,19 +6205,19 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>80</v>
@@ -5851,10 +6228,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5865,7 +6242,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -5877,20 +6254,18 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>165</v>
+        <v>263</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5914,13 +6289,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -5938,13 +6313,13 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -5953,19 +6328,19 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>80</v>
@@ -5976,10 +6351,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6002,15 +6377,17 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>165</v>
+        <v>263</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6035,13 +6412,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6059,7 +6436,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6077,30 +6454,30 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6120,20 +6497,18 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>337</v>
+        <v>204</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>205</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6182,7 +6557,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>207</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6194,13 +6569,13 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>341</v>
+        <v>208</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6212,18 +6587,18 @@
         <v>80</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6234,7 +6609,7 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6243,16 +6618,16 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>345</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>136</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6291,43 +6666,43 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>344</v>
+        <v>211</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6341,12 +6716,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C40" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="B40" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6355,7 +6732,7 @@
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6364,18 +6741,20 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6424,31 +6803,31 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>350</v>
+        <v>211</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6462,10 +6841,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6476,7 +6855,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6488,18 +6867,20 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6547,13 +6928,13 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
@@ -6565,7 +6946,7 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6574,7 +6955,7 @@
         <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>80</v>
@@ -6585,10 +6966,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6611,18 +6992,20 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>359</v>
+        <v>204</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6670,7 +7053,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6688,16 +7071,16 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>80</v>
@@ -6708,10 +7091,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6719,7 +7102,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>90</v>
@@ -6734,17 +7117,15 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>365</v>
+        <v>204</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -6793,10 +7174,10 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>90</v>
@@ -6811,13 +7192,13 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -6831,10 +7212,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6845,7 +7226,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -6854,19 +7235,19 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6916,13 +7297,13 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -6931,10 +7312,10 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -6943,12 +7324,2105 @@
         <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AQ44" t="s" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ45" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ46" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ47" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ48" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ49" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ51" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ53" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ55" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ56" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ57" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ58" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DocumentReference-for-Media.xlsx
+++ b/StructureDefinition-profile-DocumentReference-for-Media.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0857968-06:00</t>
+    <t>2026-02-17T14:42:26.7943412-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -471,8 +471,8 @@
     <t>An explicitly assigned identifer of a variation of the content in the DocumentReference.</t>
   </si>
   <si>
-    <t>Element `DocumentReference.version` is will have a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
-Element `DocumentReference.version` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+    <t>Element `DocumentReference.version` has a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.version` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -495,8 +495,8 @@
     <t>The status of the underlying document.</t>
   </si>
   <si>
-    <t>Element `DocumentReference.docStatus` is mapped to FHIR R4 element `DocumentReference.docStatus`.
-Element `DocumentReference.docStatus` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+    <t>Element `DocumentReference.docStatus` has is mapped to FHIR R4 element `DocumentReference.docStatus`, but has no comparisons.
+Element `DocumentReference.docStatus` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t>Media.extension:event</t>
@@ -515,8 +515,8 @@
     <t>This list of codes represents the main clinical acts, such as a colonoscopy or an appendectomy, being documented. In some cases, the event is inherent in the type Code, such as a "History and Physical Report" in which the procedure being documented is necessarily a "History and Physical" act.</t>
   </si>
   <si>
-    <t>Element `DocumentReference.event` is mapped to FHIR R4 element `DocumentReference.context.event`.
-Element `DocumentReference.event` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+    <t>Element `DocumentReference.event` has is mapped to FHIR R4 element `DocumentReference.context.event`, but has no comparisons.
+Element `DocumentReference.event` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t>Media.extension:attester</t>
@@ -535,8 +535,8 @@
     <t>A participant who has authenticated the accuracy of the document.</t>
   </si>
   <si>
-    <t>Element `DocumentReference.attester` is will have a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
-Element `DocumentReference.attester` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+    <t>Element `DocumentReference.attester` has a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.attester` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t>Media.extension:relatesTo</t>
@@ -555,8 +555,8 @@
     <t>Relationships that this document has with other document references that already exist.</t>
   </si>
   <si>
-    <t>Element `DocumentReference.relatesTo` is mapped to FHIR R4 element `DocumentReference.relatesTo`.
-Element `DocumentReference.relatesTo` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+    <t>Element `DocumentReference.relatesTo` has is mapped to FHIR R4 element `DocumentReference.relatesTo`, but has no comparisons.
+Element `DocumentReference.relatesTo` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t>Media.extension:context</t>
@@ -576,8 +576,8 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.context` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DocumentReference.context` is mapped to FHIR R4 element `DocumentReference.context`.
-Element `DocumentReference.context` is will have a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
+Element `DocumentReference.context` has is mapped to FHIR R4 element `DocumentReference.context`, but has no comparisons.
+Element `DocumentReference.context` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t>Media.modifierExtension</t>
@@ -698,8 +698,8 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DocumentReference.basedOn` is will have a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
-Element `DocumentReference.basedOn` is mapped to FHIR R4 element `Media.basedOn`.</t>
+Element `DocumentReference.basedOn` has a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.basedOn` has is mapped to FHIR R4 element `Media.basedOn`, but has no comparisons.</t>
   </si>
   <si>
     <t>Media.basedOn.reference</t>
@@ -1134,8 +1134,8 @@
     <t>The anatomic structures included in the document.</t>
   </si>
   <si>
-    <t>Element `DocumentReference.bodySite` is will have a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
-Element `DocumentReference.bodySite` is mapped to FHIR R4 element `Media.bodySite`.</t>
+    <t>Element `DocumentReference.bodySite` has a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.bodySite` has is mapped to FHIR R4 element `Media.bodySite`, but has no comparisons.</t>
   </si>
   <si>
     <t>Media.bodySite.coding</t>
@@ -1317,24 +1317,24 @@
     <t>Media.content.extension</t>
   </si>
   <si>
-    <t>Media.content.extension:profile</t>
-  </si>
-  <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.content.profile|0.0.1-snapshot-3}
+    <t>Media.content.extension:content</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.content|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DocumentReference.content.profile from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An identifier of the document constraints, encoding, structure, and template that the document conforms to beyond the base format indicated in the mimeType.</t>
-  </si>
-  <si>
-    <t>Element `DocumentReference.content.profile` is will have a context of DocumentReference.content based on following the parent source element upwards and mapping to `DocumentReference`.
-Element `DocumentReference.content.profile` is will have a context of Media.content based on following the parent source element upwards and mapping to `Media`.</t>
+    <t>Cross-version extension for DocumentReference.content from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The document and format referenced.  If there are multiple content element repetitions, these must all represent the same document in different format, or attachment metadata.</t>
+  </si>
+  <si>
+    <t>Element `DocumentReference.content` has is mapped to FHIR R4 element `DocumentReference.content`, but has no comparisons.
+Element `DocumentReference.content` has is mapped to FHIR R4 element `Media.content`, but has no comparisons.</t>
   </si>
   <si>
     <t>Media.content.contentType</t>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>82</v>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-profile-DocumentReference-for-Media.xlsx
+++ b/StructureDefinition-profile-DocumentReference-for-Media.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="479">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7943412-06:00</t>
+    <t>2026-02-20T11:59:20.7910078-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Media|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Media</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -461,7 +461,7 @@
     <t>version</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.version|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.version}
 </t>
   </si>
   <si>
@@ -479,53 +479,13 @@
 </t>
   </si>
   <si>
-    <t>Media.extension:docStatus</t>
-  </si>
-  <si>
-    <t>docStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.docStatus|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DocumentReference.docStatus from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The status of the underlying document.</t>
-  </si>
-  <si>
-    <t>Element `DocumentReference.docStatus` has is mapped to FHIR R4 element `DocumentReference.docStatus`, but has no comparisons.
-Element `DocumentReference.docStatus` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
-  </si>
-  <si>
-    <t>Media.extension:event</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.event|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DocumentReference.event from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This list of codes represents the main clinical acts, such as a colonoscopy or an appendectomy, being documented. In some cases, the event is inherent in the type Code, such as a "History and Physical Report" in which the procedure being documented is necessarily a "History and Physical" act.</t>
-  </si>
-  <si>
-    <t>Element `DocumentReference.event` has is mapped to FHIR R4 element `DocumentReference.context.event`, but has no comparisons.
-Element `DocumentReference.event` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
-  </si>
-  <si>
     <t>Media.extension:attester</t>
   </si>
   <si>
     <t>attester</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.attester|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.attester}
 </t>
   </si>
   <si>
@@ -539,47 +499,6 @@
 Element `DocumentReference.attester` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
-    <t>Media.extension:relatesTo</t>
-  </si>
-  <si>
-    <t>relatesTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.relatesTo|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DocumentReference.relatesTo from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Relationships that this document has with other document references that already exist.</t>
-  </si>
-  <si>
-    <t>Element `DocumentReference.relatesTo` has is mapped to FHIR R4 element `DocumentReference.relatesTo`, but has no comparisons.
-Element `DocumentReference.relatesTo` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
-  </si>
-  <si>
-    <t>Media.extension:context</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DocumentReference.context from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Appointment,http://hl7.org/fhir/StructureDefinition/Encounter,http://hl7.org/fhir/StructureDefinition/EpisodeOfCare in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.context` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DocumentReference.context` has is mapped to FHIR R4 element `DocumentReference.context`, but has no comparisons.
-Element `DocumentReference.context` has a context of Media based on following the parent source element upwards and mapping to `Media`.</t>
-  </si>
-  <si>
     <t>Media.modifierExtension</t>
   </si>
   <si>
@@ -691,6 +610,10 @@
     <t>basedOn</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension {alternate-reference}
+</t>
+  </si>
+  <si>
     <t>Cross-version extension for DocumentReference.basedOn from R5 for use in FHIR R4</t>
   </si>
   <si>
@@ -698,7 +621,6 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DocumentReference.basedOn` has a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
 Element `DocumentReference.basedOn` has is mapped to FHIR R4 element `Media.basedOn`, but has no comparisons.</t>
   </si>
   <si>
@@ -949,6 +871,41 @@
     <t>~0010,0020</t>
   </si>
   <si>
+    <t>Media.subject.id</t>
+  </si>
+  <si>
+    <t>Media.subject.extension</t>
+  </si>
+  <si>
+    <t>Media.subject.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DocumentReference.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DocumentReference.subject` has is mapped to FHIR R4 element `DocumentReference.subject`, but has no comparisons.
+Element `DocumentReference.subject` has is mapped to FHIR R4 element `Media.subject`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Media.subject.reference</t>
+  </si>
+  <si>
+    <t>Media.subject.type</t>
+  </si>
+  <si>
+    <t>Media.subject.identifier</t>
+  </si>
+  <si>
+    <t>Media.subject.display</t>
+  </si>
+  <si>
     <t>Media.encounter</t>
   </si>
   <si>
@@ -1124,7 +1081,7 @@
     <t>bodySite</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.bodySite|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.bodySite}
 </t>
   </si>
   <si>
@@ -1134,8 +1091,7 @@
     <t>The anatomic structures included in the document.</t>
   </si>
   <si>
-    <t>Element `DocumentReference.bodySite` has a context of DocumentReference based on following the parent source element upwards and mapping to `DocumentReference`.
-Element `DocumentReference.bodySite` has is mapped to FHIR R4 element `Media.bodySite`, but has no comparisons.</t>
+    <t>Element `DocumentReference.bodySite` has is mapped to FHIR R4 element `Media.bodySite`, but has no comparisons.</t>
   </si>
   <si>
     <t>Media.bodySite.coding</t>
@@ -1323,7 +1279,7 @@
     <t>content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.content|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.content}
 </t>
   </si>
   <si>
@@ -1862,7 +1818,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ61"/>
+  <dimension ref="A1:AQ64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3165,7 +3121,7 @@
         <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>80</v>
@@ -3277,13 +3233,11 @@
         <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3296,24 +3250,26 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3361,7 +3317,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3370,7 +3326,7 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>141</v>
@@ -3379,7 +3335,7 @@
         <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>80</v>
@@ -3399,14 +3355,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C13" t="s" s="2">
         <v>162</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3424,7 +3378,7 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>163</v>
@@ -3486,7 +3440,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3495,22 +3449,22 @@
         <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>80</v>
@@ -3524,16 +3478,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3549,21 +3501,21 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3611,7 +3563,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3620,16 +3572,16 @@
         <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
@@ -3649,14 +3601,12 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3665,7 +3615,7 @@
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3677,17 +3627,15 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -3736,25 +3684,25 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -3774,14 +3722,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3794,7 +3742,7 @@
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>80</v>
@@ -3803,17 +3751,13 @@
         <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3849,19 +3793,19 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3879,7 +3823,7 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -3899,12 +3843,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3913,7 +3859,7 @@
         <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -3922,19 +3868,19 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3984,7 +3930,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3996,19 +3942,19 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -4022,21 +3968,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -4048,18 +3994,18 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>200</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -4107,25 +4053,25 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -4145,10 +4091,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4168,18 +4114,20 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4204,13 +4152,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -4240,13 +4188,13 @@
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -4266,10 +4214,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4280,7 +4228,7 @@
         <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -4289,18 +4237,20 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4337,37 +4287,37 @@
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -4387,14 +4337,12 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4412,19 +4360,19 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4474,25 +4422,25 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4512,21 +4460,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4538,18 +4486,20 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4597,25 +4547,25 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4635,10 +4585,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4646,7 +4596,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -4655,22 +4605,22 @@
         <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4696,34 +4646,34 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>90</v>
@@ -4735,19 +4685,19 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>80</v>
@@ -4758,10 +4708,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4784,18 +4734,18 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4819,13 +4769,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4843,7 +4793,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4861,10 +4811,10 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -4881,10 +4831,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4907,17 +4857,15 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4942,13 +4890,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4966,7 +4914,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4981,16 +4929,16 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -5004,21 +4952,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -5030,20 +4978,16 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5067,13 +5011,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -5091,13 +5035,13 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
@@ -5106,10 +5050,10 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5129,10 +5073,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5140,7 +5084,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>90</v>
@@ -5149,23 +5093,21 @@
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>110</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5190,13 +5132,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5214,10 +5156,10 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>90</v>
@@ -5229,19 +5171,19 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>80</v>
@@ -5252,10 +5194,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5275,21 +5217,19 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>182</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5313,13 +5253,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5337,7 +5277,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5349,16 +5289,16 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>269</v>
+        <v>184</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5375,10 +5315,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5389,7 +5329,7 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5398,16 +5338,16 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5434,55 +5374,55 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5496,12 +5436,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5519,18 +5461,20 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5555,13 +5499,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5579,25 +5523,25 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5617,10 +5561,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5643,15 +5587,17 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5700,7 +5646,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>198</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5709,22 +5655,22 @@
         <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>292</v>
+        <v>133</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5738,14 +5684,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5764,20 +5710,18 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
+        <v>201</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>299</v>
+        <v>202</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5801,13 +5745,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5825,7 +5769,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5840,13 +5784,13 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>303</v>
+        <v>133</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5863,14 +5807,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5889,15 +5833,17 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>307</v>
+        <v>163</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5946,7 +5892,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5961,13 +5907,13 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5984,10 +5930,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6010,16 +5956,16 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6069,7 +6015,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>218</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6087,16 +6033,16 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>318</v>
+        <v>133</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>80</v>
@@ -6107,14 +6053,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6133,16 +6079,20 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6190,7 +6140,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6205,16 +6155,16 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6228,21 +6178,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6254,17 +6204,15 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6289,13 +6237,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6313,13 +6261,13 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -6328,13 +6276,13 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6351,10 +6299,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6377,16 +6325,16 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6412,13 +6360,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6436,7 +6384,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6454,30 +6402,30 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>346</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6497,16 +6445,16 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>206</v>
+        <v>312</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6557,7 +6505,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>207</v>
+        <v>309</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6569,19 +6517,19 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>208</v>
+        <v>314</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6595,10 +6543,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6618,18 +6566,20 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>136</v>
+        <v>318</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6654,31 +6604,31 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>211</v>
+        <v>317</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6690,16 +6640,16 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6716,14 +6666,12 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6732,7 +6680,7 @@
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6741,19 +6689,19 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>351</v>
+        <v>240</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6779,13 +6727,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6803,25 +6751,25 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>211</v>
+        <v>326</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6833,18 +6781,18 @@
         <v>80</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6855,7 +6803,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6864,23 +6812,19 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>356</v>
+        <v>180</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>181</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6928,25 +6872,25 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>361</v>
+        <v>183</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>362</v>
+        <v>184</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6955,7 +6899,7 @@
         <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>80</v>
@@ -6966,10 +6910,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6980,7 +6924,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6989,23 +6933,19 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>365</v>
+        <v>136</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7041,37 +6981,37 @@
         <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>369</v>
+        <v>187</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -7080,7 +7020,7 @@
         <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>80</v>
@@ -7091,12 +7031,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7105,7 +7047,7 @@
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -7114,18 +7056,20 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>204</v>
+        <v>339</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7174,31 +7118,31 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>372</v>
+        <v>187</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7212,10 +7156,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7226,7 +7170,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7238,18 +7182,20 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7297,13 +7243,13 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -7315,7 +7261,7 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7324,21 +7270,21 @@
         <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7361,16 +7307,20 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>386</v>
+        <v>180</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7418,7 +7368,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7436,16 +7386,16 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
@@ -7456,10 +7406,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7482,13 +7432,13 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>386</v>
+        <v>180</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7539,7 +7489,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7557,13 +7507,13 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7577,10 +7527,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7603,16 +7553,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7662,7 +7612,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7680,7 +7630,7 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7692,18 +7642,18 @@
         <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7726,17 +7676,15 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7785,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7803,13 +7751,13 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7823,10 +7771,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7834,7 +7782,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>90</v>
@@ -7849,17 +7797,15 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7908,10 +7854,10 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>90</v>
@@ -7926,13 +7872,13 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -7946,10 +7892,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7969,18 +7915,20 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>204</v>
+        <v>374</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>205</v>
+        <v>384</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8029,7 +7977,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>207</v>
+        <v>383</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8041,13 +7989,13 @@
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>208</v>
+        <v>377</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -8067,10 +8015,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8078,11 +8026,11 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8090,18 +8038,20 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>135</v>
+        <v>388</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>136</v>
+        <v>389</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8138,43 +8088,43 @@
         <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>211</v>
+        <v>387</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8188,14 +8138,12 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8204,7 +8152,7 @@
         <v>90</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8213,19 +8161,19 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8275,25 +8223,25 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>211</v>
+        <v>393</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8313,10 +8261,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8336,21 +8284,19 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>420</v>
+        <v>181</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>421</v>
+        <v>182</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>422</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8362,7 +8308,7 @@
         <v>80</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>80</v>
@@ -8374,13 +8320,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8398,7 +8344,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>426</v>
+        <v>183</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8410,13 +8356,13 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>427</v>
+        <v>184</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8425,7 +8371,7 @@
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8436,10 +8382,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8447,10 +8393,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8459,21 +8405,19 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>430</v>
+        <v>136</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>431</v>
+        <v>137</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>432</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8485,7 +8429,7 @@
         <v>80</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>433</v>
+        <v>80</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>80</v>
@@ -8497,49 +8441,49 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>434</v>
+        <v>187</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8559,21 +8503,23 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8585,20 +8531,18 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8646,25 +8590,25 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>442</v>
+        <v>187</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8673,7 +8617,7 @@
         <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -8684,10 +8628,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8710,19 +8654,17 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>446</v>
+        <v>110</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8735,7 +8677,7 @@
         <v>80</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>80</v>
@@ -8747,13 +8689,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8771,7 +8713,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8789,7 +8731,7 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8798,7 +8740,7 @@
         <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -8809,10 +8751,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8835,19 +8777,17 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>456</v>
+        <v>110</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8860,7 +8800,7 @@
         <v>80</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>80</v>
@@ -8872,13 +8812,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8896,7 +8836,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8914,7 +8854,7 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8934,10 +8874,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8957,22 +8897,22 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9021,7 +8961,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9039,7 +8979,7 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -9048,7 +8988,7 @@
         <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9059,10 +8999,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9085,17 +9025,19 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>204</v>
+        <v>434</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="O59" t="s" s="2">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9108,7 +9050,7 @@
         <v>80</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>80</v>
@@ -9144,7 +9086,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9162,7 +9104,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -9171,7 +9113,7 @@
         <v>80</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9182,10 +9124,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9208,17 +9150,19 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="O60" t="s" s="2">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9267,7 +9211,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9285,7 +9229,7 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -9305,10 +9249,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9319,7 +9263,7 @@
         <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9328,21 +9272,23 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>484</v>
+        <v>425</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9390,13 +9336,13 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
@@ -9405,10 +9351,10 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>488</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9417,12 +9363,381 @@
         <v>80</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>490</v>
+        <v>80</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ61" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ62" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ63" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DocumentReference-for-Media.xlsx
+++ b/StructureDefinition-profile-DocumentReference-for-Media.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="436">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7910078-06:00</t>
+    <t>2026-02-21T13:36:54.2073131-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Media</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Media|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -461,7 +461,7 @@
     <t>version</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.version}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.version|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>attester</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.attester}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.attester|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -574,134 +574,6 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Media.basedOn.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Media.basedOn.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Media.basedOn.extension:basedOn</t>
-  </si>
-  <si>
-    <t>basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DocumentReference.basedOn from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Appointment,http://hl7.org/fhir/StructureDefinition/AppointmentResponse,http://hl7.org/fhir/StructureDefinition/Claim,http://hl7.org/fhir/StructureDefinition/CommunicationRequest,http://hl7.org/fhir/StructureDefinition/Contract,http://hl7.org/fhir/StructureDefinition/CoverageEligibilityRequest,http://hl7.org/fhir/StructureDefinition/DeviceRequest,http://hl7.org/fhir/StructureDefinition/EnrollmentRequest,http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation,http://hl7.org/fhir/StructureDefinition/MedicationRequest,http://hl7.org/fhir/StructureDefinition/NutritionOrder,http://hl7.org/fhir/StructureDefinition/RequestOrchestration,http://hl7.org/fhir/StructureDefinition/SupplyRequest,http://hl7.org/fhir/StructureDefinition/VisionPrescription in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DocumentReference.basedOn` has is mapped to FHIR R4 element `Media.basedOn`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Media.basedOn.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Media.basedOn.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Media.basedOn.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Media.basedOn.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Media.partOf</t>
@@ -786,6 +658,9 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Codes for high level media categories.</t>
   </si>
   <si>
@@ -871,41 +746,6 @@
     <t>~0010,0020</t>
   </si>
   <si>
-    <t>Media.subject.id</t>
-  </si>
-  <si>
-    <t>Media.subject.extension</t>
-  </si>
-  <si>
-    <t>Media.subject.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DocumentReference.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DocumentReference.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DocumentReference.subject` has is mapped to FHIR R4 element `DocumentReference.subject`, but has no comparisons.
-Element `DocumentReference.subject` has is mapped to FHIR R4 element `Media.subject`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Media.subject.reference</t>
-  </si>
-  <si>
-    <t>Media.subject.type</t>
-  </si>
-  <si>
-    <t>Media.subject.identifier</t>
-  </si>
-  <si>
-    <t>Media.subject.display</t>
-  </si>
-  <si>
     <t>Media.encounter</t>
   </si>
   <si>
@@ -1072,16 +912,38 @@
     <t>Media.bodySite.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Media.bodySite.extension</t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>Media.bodySite.extension:bodySite</t>
   </si>
   <si>
     <t>bodySite</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.bodySite}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.bodySite|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1091,7 +953,7 @@
     <t>The anatomic structures included in the document.</t>
   </si>
   <si>
-    <t>Element `DocumentReference.bodySite` has is mapped to FHIR R4 element `Media.bodySite`, but has no comparisons.</t>
+    <t>Element `DocumentReference.bodySite` is mapped to FHIR R4 element `Media.bodySite` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Media.bodySite.coding</t>
@@ -1273,24 +1135,24 @@
     <t>Media.content.extension</t>
   </si>
   <si>
-    <t>Media.content.extension:content</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.content}
+    <t>Media.content.extension:profile</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DocumentReference.content.profile|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DocumentReference.content from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The document and format referenced.  If there are multiple content element repetitions, these must all represent the same document in different format, or attachment metadata.</t>
-  </si>
-  <si>
-    <t>Element `DocumentReference.content` has is mapped to FHIR R4 element `DocumentReference.content`, but has no comparisons.
-Element `DocumentReference.content` has is mapped to FHIR R4 element `Media.content`, but has no comparisons.</t>
+    <t>Cross-version extension for DocumentReference.content.profile from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An identifier of the document constraints, encoding, structure, and template that the document conforms to beyond the base format indicated in the mimeType.</t>
+  </si>
+  <si>
+    <t>Element `DocumentReference.content.profile` has a context of DocumentReference.content based on following the parent source element upwards and mapping to `DocumentReference`.
+Element `DocumentReference.content.profile` has a context of Media.content based on following the parent source element upwards and mapping to `Media`.</t>
   </si>
   <si>
     <t>Media.content.contentType</t>
@@ -1818,7 +1680,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ64"/>
+  <dimension ref="A1:AQ50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1827,7 +1689,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.60546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.40625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3608,14 +3470,14 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3624,19 +3486,23 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3684,25 +3550,25 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -3722,10 +3588,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3733,30 +3599,32 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3781,58 +3649,58 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>80</v>
@@ -3843,14 +3711,12 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3868,21 +3734,21 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3906,13 +3772,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3930,28 +3796,28 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -3968,10 +3834,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3994,17 +3860,15 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -4029,13 +3893,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -4053,7 +3917,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4062,22 +3926,22 @@
         <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -4091,10 +3955,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4117,17 +3981,15 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4152,13 +4014,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -4176,7 +4038,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4194,7 +4056,7 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -4214,10 +4076,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4240,17 +4102,15 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4299,7 +4159,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4314,16 +4174,16 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4337,14 +4197,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4363,18 +4223,20 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4422,7 +4284,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4437,13 +4299,13 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4460,21 +4322,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4486,20 +4348,16 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4547,13 +4405,13 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
@@ -4562,13 +4420,13 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4585,10 +4443,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4596,7 +4454,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -4605,22 +4463,22 @@
         <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4646,13 +4504,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4670,10 +4528,10 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>90</v>
@@ -4685,19 +4543,19 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>80</v>
@@ -4708,10 +4566,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4734,18 +4592,16 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4769,13 +4625,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4793,7 +4649,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4808,16 +4664,16 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -4831,10 +4687,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4845,7 +4701,7 @@
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4857,15 +4713,17 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4890,13 +4748,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4914,13 +4772,13 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -4929,16 +4787,16 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -4952,10 +4810,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4978,15 +4836,17 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5011,13 +4871,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -5035,7 +4895,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5053,7 +4913,7 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5065,18 +4925,18 @@
         <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5096,16 +4956,16 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5156,7 +5016,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5168,19 +5028,19 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5194,10 +5054,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5208,7 +5068,7 @@
         <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5220,13 +5080,13 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5265,37 +5125,37 @@
         <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5315,12 +5175,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5341,15 +5203,17 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>136</v>
+        <v>297</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5386,19 +5250,19 @@
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5436,14 +5300,12 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5452,7 +5314,7 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5461,21 +5323,23 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>301</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5523,7 +5387,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>187</v>
+        <v>306</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5535,13 +5399,13 @@
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5550,7 +5414,7 @@
         <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
@@ -5561,10 +5425,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5587,18 +5451,20 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>195</v>
+        <v>310</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>196</v>
+        <v>311</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5646,7 +5512,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5655,7 +5521,7 @@
         <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>102</v>
@@ -5664,7 +5530,7 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5673,7 +5539,7 @@
         <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -5684,10 +5550,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5710,17 +5576,15 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5745,13 +5609,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5769,7 +5633,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5787,13 +5651,13 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>133</v>
+        <v>320</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5807,10 +5671,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5833,16 +5697,16 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>163</v>
+        <v>323</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>209</v>
+        <v>324</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>211</v>
+        <v>326</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5892,7 +5756,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5910,7 +5774,7 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>213</v>
+        <v>327</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5922,18 +5786,18 @@
         <v>80</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5956,17 +5820,15 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>180</v>
+        <v>331</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>215</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -6015,7 +5877,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>218</v>
+        <v>330</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6033,13 +5895,13 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>133</v>
+        <v>334</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6053,14 +5915,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6079,20 +5941,16 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6140,7 +5998,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6155,16 +6013,16 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6178,14 +6036,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6204,15 +6062,17 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6261,7 +6121,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6276,13 +6136,13 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6299,10 +6159,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6325,16 +6185,16 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6384,7 +6244,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6402,16 +6262,16 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>80</v>
@@ -6422,10 +6282,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6433,7 +6293,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
@@ -6448,15 +6308,17 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6505,10 +6367,10 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>90</v>
@@ -6520,16 +6382,16 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6543,10 +6405,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6557,7 +6419,7 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6566,20 +6428,18 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6604,13 +6464,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6628,28 +6488,28 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6666,10 +6526,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6680,7 +6540,7 @@
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6689,20 +6549,18 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6727,49 +6585,49 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6781,20 +6639,22 @@
         <v>80</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6803,7 +6663,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6815,15 +6675,17 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>181</v>
+        <v>361</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6872,25 +6734,25 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6910,10 +6772,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6924,7 +6786,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6933,19 +6795,21 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>136</v>
+        <v>365</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>137</v>
+        <v>366</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6957,7 +6821,7 @@
         <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>80</v>
@@ -6969,49 +6833,49 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>187</v>
+        <v>371</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -7020,7 +6884,7 @@
         <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>80</v>
@@ -7031,14 +6895,12 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7047,7 +6909,7 @@
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -7056,21 +6918,21 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>110</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7082,7 +6944,7 @@
         <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>80</v>
@@ -7094,13 +6956,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7118,25 +6980,25 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>187</v>
+        <v>379</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -7156,10 +7018,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7170,7 +7032,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7179,22 +7041,22 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7243,13 +7105,13 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -7261,7 +7123,7 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7270,7 +7132,7 @@
         <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>80</v>
@@ -7281,10 +7143,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7307,19 +7169,19 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>180</v>
+        <v>391</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7332,7 +7194,7 @@
         <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>80</v>
@@ -7368,7 +7230,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7386,7 +7248,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7395,7 +7257,7 @@
         <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
@@ -7406,10 +7268,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7432,16 +7294,20 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>180</v>
+        <v>401</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7489,7 +7355,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7507,13 +7373,13 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7527,10 +7393,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7553,18 +7419,20 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7612,7 +7480,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7630,7 +7498,7 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7642,18 +7510,18 @@
         <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7676,16 +7544,18 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7697,7 +7567,7 @@
         <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>80</v>
@@ -7733,7 +7603,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7751,13 +7621,13 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7771,10 +7641,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7797,16 +7667,18 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7854,7 +7726,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7872,13 +7744,13 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -7892,10 +7764,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7906,7 +7778,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7915,19 +7787,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7977,13 +7849,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
@@ -7992,10 +7864,10 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>433</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -8004,1740 +7876,12 @@
         <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ51" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ52" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ53" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ54" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ55" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ56" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ57" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ58" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ61" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ62" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ63" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
         <v>80</v>
       </c>
     </row>
